--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>EmemyID</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Tank1</t>
+  </si>
+  <si>
+    <t>Tank2</t>
+  </si>
+  <si>
+    <t>Tank3</t>
+  </si>
+  <si>
+    <t>Tele1</t>
+  </si>
+  <si>
+    <t>Tele2</t>
+  </si>
+  <si>
+    <t>Tele3</t>
+  </si>
+  <si>
+    <t>Fly1</t>
+  </si>
+  <si>
+    <t>Fly2</t>
+  </si>
+  <si>
+    <t>Fly3</t>
   </si>
 </sst>
 </file>
@@ -437,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,7 +520,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -496,18 +529,237 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>550</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>650</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="GunLevel" sheetId="4" r:id="rId4"/>
+    <sheet name="HeroLevel" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>EmemyID</t>
   </si>
@@ -82,13 +86,85 @@
   </si>
   <si>
     <t>Fly3</t>
+  </si>
+  <si>
+    <t>EmemyType</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Tele</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>!ATK</t>
+  </si>
+  <si>
+    <t>EnemyLevel</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>!Tỷ lệ upgrade sau 5 lv</t>
+  </si>
+  <si>
+    <t>!Tỷ lệ nhân</t>
+  </si>
+  <si>
+    <t>!GunLevel</t>
+  </si>
+  <si>
+    <t>!GunDamage</t>
+  </si>
+  <si>
+    <t>!Lượng Đạn Để tiêu diệt Enemy</t>
+  </si>
+  <si>
+    <t>!EnemyType</t>
+  </si>
+  <si>
+    <t>!EnemyLevel</t>
+  </si>
+  <si>
+    <t>!Số lần đánh chết Hero</t>
+  </si>
+  <si>
+    <t>!Hero Level</t>
+  </si>
+  <si>
+    <t>!HP Hero</t>
+  </si>
+  <si>
+    <t>HeroLevel</t>
+  </si>
+  <si>
+    <t>!Hệ số cộng</t>
+  </si>
+  <si>
+    <t>!HP cộng</t>
+  </si>
+  <si>
+    <t>!Quảng Đường</t>
+  </si>
+  <si>
+    <t>!Thời gian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,16 +188,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,18 +216,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,292 +623,1906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <f xml:space="preserve"> VLOOKUP(B3,Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, Sheet3!$A$2:$B$4,2)</f>
+        <v>201</v>
+      </c>
+      <c r="F3" s="1">
+        <f>VLOOKUP(B3, Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, Sheet3!$A$1:$F$4,6)</f>
+        <v>157.5</v>
+      </c>
+      <c r="G3" s="1">
+        <f>VLOOKUP(B3, Sheet2!$A$2:$E$5, 5)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <f>VLOOKUP(B3, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
+        <v>675</v>
+      </c>
+      <c r="F4" s="1">
+        <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
+        <v>245</v>
+      </c>
+      <c r="G4" s="1">
+        <f>VLOOKUP(B4, Sheet2!$A$2:$E$5, 5)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <f>VLOOKUP(B4, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
+        <v>3325</v>
+      </c>
+      <c r="F5" s="1">
+        <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
+        <v>385</v>
+      </c>
+      <c r="G5" s="1">
+        <f>VLOOKUP(B5, Sheet2!$A$2:$E$5, 5)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <f>VLOOKUP(B5, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <f xml:space="preserve"> VLOOKUP(B6,Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, Sheet3!$A$2:$B$4,2)</f>
+        <v>603</v>
+      </c>
+      <c r="F6" s="1">
+        <f>VLOOKUP(B6, Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, Sheet3!$A$1:$F$4,6)</f>
+        <v>90</v>
+      </c>
+      <c r="G6" s="1">
+        <f>VLOOKUP(B6, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f>VLOOKUP(B6, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
+        <v>2025</v>
+      </c>
+      <c r="F7" s="1">
+        <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
+        <v>140</v>
+      </c>
+      <c r="G7" s="1">
+        <f>VLOOKUP(B7, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>VLOOKUP(B7, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
+        <v>9975</v>
+      </c>
+      <c r="F8" s="1">
+        <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
+        <v>220</v>
+      </c>
+      <c r="G8" s="1">
+        <f>VLOOKUP(B8, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f>VLOOKUP(B8, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <f xml:space="preserve"> VLOOKUP(B9,Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, Sheet3!$A$2:$B$4,2)</f>
+        <v>402</v>
+      </c>
+      <c r="F9" s="1">
+        <f>VLOOKUP(B9, Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, Sheet3!$A$1:$F$4,6)</f>
+        <v>135</v>
+      </c>
+      <c r="G9" s="1">
+        <f>VLOOKUP(B9, Sheet2!$A$2:$E$5, 5)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <f>VLOOKUP(B9, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
+        <v>1350</v>
+      </c>
+      <c r="F10" s="1">
+        <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
+        <v>210</v>
+      </c>
+      <c r="G10" s="1">
+        <f>VLOOKUP(B10, Sheet2!$A$2:$E$5, 5)</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <f>VLOOKUP(B10, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
+        <v>6650</v>
+      </c>
+      <c r="F11" s="1">
+        <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
+        <v>330</v>
+      </c>
+      <c r="G11" s="1">
+        <f>VLOOKUP(B11, Sheet2!$A$2:$E$5, 5)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <f>VLOOKUP(B11, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <f xml:space="preserve"> VLOOKUP(B12,Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, Sheet3!$A$2:$B$4,2)</f>
+        <v>301.5</v>
+      </c>
+      <c r="F12" s="1">
+        <f>VLOOKUP(B12, Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, Sheet3!$A$1:$F$4,6)</f>
+        <v>180</v>
+      </c>
+      <c r="G12" s="1">
+        <f>VLOOKUP(B12, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f>VLOOKUP(B12, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
+        <v>1012.5</v>
+      </c>
+      <c r="F13" s="1">
+        <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
+        <v>280</v>
+      </c>
+      <c r="G13" s="1">
+        <f>VLOOKUP(B13, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f>VLOOKUP(B13, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
+        <v>4987.5</v>
+      </c>
+      <c r="F14" s="1">
+        <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
+        <v>440</v>
+      </c>
+      <c r="G14" s="1">
+        <f>VLOOKUP(B14, Sheet2!$A$2:$E$5, 5)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f>VLOOKUP(B14, Sheet2!$A$2:$F$5, 6)</f>
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ROUND(H2 / I2, 2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2 * E2</f>
+        <v>5.25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F5" si="0">ROUND(H3 / I3, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G5" si="1">D3 * E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>C2 * E2</f>
+        <v>201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>VLOOKUP(D2, GunLevel!A3:B27,2)</f>
+        <v>67</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ROUND(I2/G2, 0)</f>
+        <v>90</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>VLOOKUP(H2, HeroLevel!$A$3:$B$27,2)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
+        <v>675</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(D3, GunLevel!A4:B28,2)</f>
+        <v>135</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="1">ROUND(I3/G3, 0)</f>
+        <v>140</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <f>VLOOKUP(H3, HeroLevel!$A$3:$B$27,2)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>3325</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <f>VLOOKUP(D4, GunLevel!A5:B29,2)</f>
+        <v>475</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <f>VLOOKUP(H4, HeroLevel!$A$3:$B$27,2)</f>
+        <v>4400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>ROUND(POWER(C3, 1 / 5), 2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3 *E3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <f>A3 +1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>ROUND(B3*D4, 0)</f>
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A26" si="2">A4 +1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
+        <v>67</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E27" si="4">E4</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B7" s="1">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="3"/>
+        <v>359</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="3"/>
+        <v>628</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="3"/>
+        <v>955</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="3"/>
+        <v>1263</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <f>A26 +1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="3"/>
+        <v>1452</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>700</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <f>A3 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3 + D4</f>
+        <v>800</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D27" si="0">C4 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A26" si="1">A4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B27" si="2">B4 + D5</f>
+        <v>900</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
-      <c r="F4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D5">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>6100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <f>A26 + 1</f>
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
         <v>500</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>2.5</v>
-      </c>
-      <c r="F8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>450</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>550</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-      <c r="E10">
-        <v>3.5</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>650</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-      <c r="F13">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="E3" s="1">
         <f xml:space="preserve"> VLOOKUP(B3,Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, Sheet3!$A$2:$B$4,2)</f>
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP(B3, Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, Sheet3!$A$1:$F$4,6)</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
-        <v>675</v>
+        <v>480</v>
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
@@ -758,7 +758,7 @@
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
-        <v>3325</v>
+        <v>1668</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
@@ -788,7 +788,7 @@
       </c>
       <c r="E6" s="1">
         <f xml:space="preserve"> VLOOKUP(B6,Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, Sheet3!$A$2:$B$4,2)</f>
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(B6, Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, Sheet3!$A$1:$F$4,6)</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
-        <v>2025</v>
+        <v>1440</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
@@ -848,7 +848,7 @@
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
-        <v>9975</v>
+        <v>5004</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="1">
         <f xml:space="preserve"> VLOOKUP(B9,Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, Sheet3!$A$2:$B$4,2)</f>
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(B9, Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, Sheet3!$A$1:$F$4,6)</f>
@@ -908,7 +908,7 @@
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
-        <v>1350</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
@@ -938,7 +938,7 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
-        <v>6650</v>
+        <v>3336</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
@@ -968,7 +968,7 @@
       </c>
       <c r="E12" s="1">
         <f xml:space="preserve"> VLOOKUP(B12,Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, Sheet3!$A$2:$B$4,2)</f>
-        <v>301.5</v>
+        <v>292.5</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(B12, Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, Sheet3!$A$1:$F$4,6)</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="E13" s="1">
         <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
-        <v>1012.5</v>
+        <v>720</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
-        <v>4987.5</v>
+        <v>2502</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1279,17 +1279,17 @@
       </c>
       <c r="B2" s="1">
         <f>C2 * E2</f>
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1">
         <f>VLOOKUP(D2, GunLevel!A3:B27,2)</f>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1">
         <f>ROUND(I2/G2, 0)</f>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
-        <v>675</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(D3, GunLevel!A4:B28,2)</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F4" si="1">ROUND(I3/G3, 0)</f>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>3325</v>
+        <v>1668</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <f>VLOOKUP(D4, GunLevel!A5:B29,2)</f>
-        <v>475</v>
+        <v>278</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
@@ -1387,671 +1387,671 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <f>B3 *E3</f>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4">
         <f>A3 +1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>58</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5">
         <f t="shared" ref="A5:A26" si="2">A4 +1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>67</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <f t="shared" ref="E5:E27" si="4">E4</f>
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>102</v>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>117</v>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
+        <v>159</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>135</v>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>155</v>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+        <v>210</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>178</v>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
+        <v>242</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>205</v>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
+        <v>278</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>236</v>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <f t="shared" si="3"/>
-        <v>271</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>271</v>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <f t="shared" si="3"/>
-        <v>312</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+        <v>368</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>312</v>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <f t="shared" si="3"/>
-        <v>359</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
+        <v>423</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>359</v>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <f t="shared" si="3"/>
-        <v>413</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
+        <v>486</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>413</v>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <f t="shared" si="3"/>
-        <v>475</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+        <v>559</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>475</v>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <f t="shared" si="3"/>
-        <v>546</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+        <v>643</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>546</v>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <f t="shared" si="3"/>
-        <v>628</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
+        <v>739</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>628</v>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <f t="shared" si="3"/>
-        <v>722</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
+        <v>850</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>722</v>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="A23">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <f t="shared" si="3"/>
-        <v>830</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
+        <v>978</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>830</v>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>978</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="A24">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <f t="shared" si="3"/>
-        <v>955</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
+        <v>1125</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>955</v>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="A25">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <f t="shared" si="3"/>
-        <v>1098</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
+        <v>1294</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>1098</v>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1294</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="A26">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <f t="shared" si="3"/>
-        <v>1263</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
+        <v>1488</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>1263</v>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1488</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="A27">
         <f>A26 +1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <f t="shared" si="3"/>
-        <v>1452</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
+        <v>1711</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>1452</v>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="E3" s="1">
         <f xml:space="preserve"> VLOOKUP(B3,Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, Sheet3!$A$2:$B$4,2)</f>
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP(B3, Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, Sheet3!$A$1:$F$4,6)</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
@@ -758,7 +758,7 @@
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
-        <v>1668</v>
+        <v>1228</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
@@ -788,7 +788,7 @@
       </c>
       <c r="E6" s="1">
         <f xml:space="preserve"> VLOOKUP(B6,Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, Sheet3!$A$2:$B$4,2)</f>
-        <v>585</v>
+        <v>498</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(B6, Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, Sheet3!$A$1:$F$4,6)</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
-        <v>1440</v>
+        <v>1377</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
@@ -848,7 +848,7 @@
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
-        <v>5004</v>
+        <v>3684</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="1">
         <f xml:space="preserve"> VLOOKUP(B9,Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, Sheet3!$A$2:$B$4,2)</f>
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(B9, Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, Sheet3!$A$1:$F$4,6)</f>
@@ -908,7 +908,7 @@
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
-        <v>960</v>
+        <v>918</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
@@ -938,7 +938,7 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
-        <v>3336</v>
+        <v>2456</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
@@ -968,7 +968,7 @@
       </c>
       <c r="E12" s="1">
         <f xml:space="preserve"> VLOOKUP(B12,Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, Sheet3!$A$2:$B$4,2)</f>
-        <v>292.5</v>
+        <v>249</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(B12, Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, Sheet3!$A$1:$F$4,6)</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="E13" s="1">
         <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
-        <v>720</v>
+        <v>688.5</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
-        <v>2502</v>
+        <v>1842</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1279,17 +1279,17 @@
       </c>
       <c r="B2" s="1">
         <f>C2 * E2</f>
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1">
         <f>VLOOKUP(D2, GunLevel!A3:B27,2)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <f>ROUND(I2/G2, 0)</f>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(D3, GunLevel!A4:B28,2)</f>
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F4" si="1">ROUND(I3/G3, 0)</f>
@@ -1345,17 +1345,17 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1668</v>
+        <v>1228</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
       </c>
       <c r="E4" s="1">
         <f>VLOOKUP(D4, GunLevel!A5:B29,2)</f>
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1440,11 +1440,11 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D3">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1461,14 +1461,14 @@
       </c>
       <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E4">
         <f>E3</f>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1486,14 +1486,14 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E27" si="4">E4</f>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>643</v>
+        <v>711</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>643</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>739</v>
+        <v>818</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>739</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>850</v>
+        <v>941</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>978</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>1244</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1125</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1294</v>
+        <v>1431</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1294</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1488</v>
+        <v>1646</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1488</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1711</v>
+        <v>1893</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1711</v>
+        <v>1893</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>EmemyID</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>!Thời gian</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,12 +275,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -623,15 +634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,8 +667,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -682,8 +696,11 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -698,7 +715,7 @@
       </c>
       <c r="E3" s="1">
         <f xml:space="preserve"> VLOOKUP(B3,Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, Sheet3!$A$2:$B$4,2)</f>
-        <v>166</v>
+        <v>297.5</v>
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP(B3, Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, Sheet3!$A$1:$F$4,6)</f>
@@ -712,8 +729,12 @@
         <f>VLOOKUP(B3, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1">
+        <f>VLOOKUP(B3, Sheet2!A$2:J$5,10) * VLOOKUP(C3, Sheet3!A$2:J$4,10)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -728,7 +749,7 @@
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
-        <v>459</v>
+        <v>805</v>
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
@@ -742,8 +763,12 @@
         <f>VLOOKUP(B4, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1">
+        <f>VLOOKUP(B4, Sheet2!A$2:J$5,10) * VLOOKUP(C4, Sheet3!A$2:J$4,10)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -758,7 +783,7 @@
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
-        <v>1228</v>
+        <v>2268</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
@@ -772,8 +797,12 @@
         <f>VLOOKUP(B5, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1">
+        <f>VLOOKUP(B5, Sheet2!A$2:J$5,10) * VLOOKUP(C5, Sheet3!A$2:J$4,10)</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -788,7 +817,7 @@
       </c>
       <c r="E6" s="1">
         <f xml:space="preserve"> VLOOKUP(B6,Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, Sheet3!$A$2:$B$4,2)</f>
-        <v>498</v>
+        <v>892.5</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(B6, Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, Sheet3!$A$1:$F$4,6)</f>
@@ -802,8 +831,12 @@
         <f>VLOOKUP(B6, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1">
+        <f>VLOOKUP(B6, Sheet2!A$2:J$5,10) * VLOOKUP(C6, Sheet3!A$2:J$4,10)</f>
+        <v>178.20000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -818,7 +851,7 @@
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
-        <v>1377</v>
+        <v>2415</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
@@ -832,8 +865,12 @@
         <f>VLOOKUP(B7, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1">
+        <f>VLOOKUP(B7, Sheet2!A$2:J$5,10) * VLOOKUP(C7, Sheet3!A$2:J$4,10)</f>
+        <v>538.20000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>23</v>
       </c>
@@ -848,7 +885,7 @@
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
-        <v>3684</v>
+        <v>6804</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
@@ -862,8 +899,12 @@
         <f>VLOOKUP(B8, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1">
+        <f>VLOOKUP(B8, Sheet2!A$2:J$5,10) * VLOOKUP(C8, Sheet3!A$2:J$4,10)</f>
+        <v>898.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -878,7 +919,7 @@
       </c>
       <c r="E9" s="1">
         <f xml:space="preserve"> VLOOKUP(B9,Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, Sheet3!$A$2:$B$4,2)</f>
-        <v>332</v>
+        <v>446.25</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(B9, Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, Sheet3!$A$1:$F$4,6)</f>
@@ -892,8 +933,12 @@
         <f>VLOOKUP(B9, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1">
+        <f>VLOOKUP(B9, Sheet2!A$2:J$5,10) * VLOOKUP(C9, Sheet3!A$2:J$4,10)</f>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -908,7 +953,7 @@
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
-        <v>918</v>
+        <v>1207.5</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
@@ -922,8 +967,12 @@
         <f>VLOOKUP(B10, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1">
+        <f>VLOOKUP(B10, Sheet2!A$2:J$5,10) * VLOOKUP(C10, Sheet3!A$2:J$4,10)</f>
+        <v>448.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -938,7 +987,7 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
-        <v>2456</v>
+        <v>3402</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
@@ -952,8 +1001,12 @@
         <f>VLOOKUP(B11, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1">
+        <f>VLOOKUP(B11, Sheet2!A$2:J$5,10) * VLOOKUP(C11, Sheet3!A$2:J$4,10)</f>
+        <v>748.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>41</v>
       </c>
@@ -968,7 +1021,7 @@
       </c>
       <c r="E12" s="1">
         <f xml:space="preserve"> VLOOKUP(B12,Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, Sheet3!$A$2:$B$4,2)</f>
-        <v>249</v>
+        <v>267.75</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(B12, Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, Sheet3!$A$1:$F$4,6)</f>
@@ -982,8 +1035,12 @@
         <f>VLOOKUP(B12, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1">
+        <f>VLOOKUP(B12, Sheet2!A$2:J$5,10) * VLOOKUP(C12, Sheet3!A$2:J$4,10)</f>
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>42</v>
       </c>
@@ -998,7 +1055,7 @@
       </c>
       <c r="E13" s="1">
         <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
-        <v>688.5</v>
+        <v>724.5</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
@@ -1012,8 +1069,12 @@
         <f>VLOOKUP(B13, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1">
+        <f>VLOOKUP(B13, Sheet2!A$2:J$5,10) * VLOOKUP(C13, Sheet3!A$2:J$4,10)</f>
+        <v>373.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>43</v>
       </c>
@@ -1028,7 +1089,7 @@
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
-        <v>1842</v>
+        <v>2041.2</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
@@ -1041,6 +1102,10 @@
       <c r="H14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$F$5, 6)</f>
         <v>0.88</v>
+      </c>
+      <c r="I14" s="1">
+        <f>VLOOKUP(B14, Sheet2!A$2:J$5,10) * VLOOKUP(C14, Sheet3!A$2:J$4,10)</f>
+        <v>623.75</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1066,36 +1131,39 @@
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1119,14 +1187,17 @@
         <f>D2 * E2</f>
         <v>5.25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>3.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1150,14 +1221,17 @@
         <f t="shared" ref="G3:G5" si="1">D3 * E3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>3.5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1165,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -1181,14 +1255,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>3.5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1196,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1212,11 +1289,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>3.5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1231,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1244,52 +1324,55 @@
     <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <f>C2 * E2</f>
-        <v>166</v>
+        <v>297.5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1">
         <f>VLOOKUP(D2, GunLevel!A3:B27,2)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1">
         <f>ROUND(I2/G2, 0)</f>
@@ -1305,24 +1388,27 @@
         <f>VLOOKUP(H2, HeroLevel!$A$3:$B$27,2)</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
-        <v>459</v>
+        <v>805</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(D3, GunLevel!A4:B28,2)</f>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F4" si="1">ROUND(I3/G3, 0)</f>
@@ -1338,24 +1424,27 @@
         <f>VLOOKUP(H3, HeroLevel!$A$3:$B$27,2)</f>
         <v>2100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1228</v>
+        <v>2268</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
       </c>
       <c r="E4" s="1">
         <f>VLOOKUP(D4, GunLevel!A5:B29,2)</f>
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
@@ -1370,6 +1459,9 @@
       <c r="I4" s="1">
         <f>VLOOKUP(H4, HeroLevel!$A$3:$B$27,2)</f>
         <v>4400</v>
+      </c>
+      <c r="J4" s="1">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1532,11 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1461,14 +1553,14 @@
       </c>
       <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E4">
         <f>E3</f>
@@ -1476,7 +1568,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1486,14 +1578,14 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E27" si="4">E4</f>
@@ -1501,7 +1593,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1511,14 +1603,14 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -1526,7 +1618,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1536,14 +1628,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -1551,7 +1643,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1561,7 +1653,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1576,7 +1668,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1586,7 +1678,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1601,7 +1693,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1611,7 +1703,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1626,7 +1718,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1636,7 +1728,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1651,7 +1743,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1661,7 +1753,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1676,7 +1768,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1686,7 +1778,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1701,7 +1793,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1711,7 +1803,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1726,7 +1818,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1736,7 +1828,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1751,7 +1843,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1761,7 +1853,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1776,7 +1868,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1786,7 +1878,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1801,7 +1893,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1811,7 +1903,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1826,7 +1918,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1836,7 +1928,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1851,7 +1943,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>618</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1861,7 +1953,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1876,7 +1968,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>711</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1886,7 +1978,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>818</v>
+        <v>863</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1901,7 +1993,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>818</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1911,7 +2003,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1926,7 +2018,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>941</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1936,7 +2028,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>1082</v>
+        <v>1141</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1951,7 +2043,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1082</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1961,7 +2053,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>1244</v>
+        <v>1312</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1976,7 +2068,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1244</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1986,7 +2078,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1431</v>
+        <v>1509</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2001,7 +2093,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1431</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2011,7 +2103,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1646</v>
+        <v>1735</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2026,7 +2118,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1646</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2036,7 +2128,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1893</v>
+        <v>1995</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2051,7 +2143,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1893</v>
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
@@ -2075,30 +2167,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -730,7 +730,7 @@
         <v>0.7</v>
       </c>
       <c r="I3" s="1">
-        <f>VLOOKUP(B3, Sheet2!A$2:J$5,10) * VLOOKUP(C3, Sheet3!A$2:J$4,10)</f>
+        <f>ROUND(VLOOKUP(B3, Sheet2!A$2:J$5,10) * VLOOKUP(C3, Sheet3!A$2:J$4,10), 0)</f>
         <v>99</v>
       </c>
     </row>
@@ -764,8 +764,8 @@
         <v>0.7</v>
       </c>
       <c r="I4" s="1">
-        <f>VLOOKUP(B4, Sheet2!A$2:J$5,10) * VLOOKUP(C4, Sheet3!A$2:J$4,10)</f>
-        <v>299</v>
+        <f>ROUND(VLOOKUP(B4, Sheet2!A$2:J$5,10) * VLOOKUP(C4, Sheet3!A$2:J$4,10), 0)</f>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -798,8 +798,8 @@
         <v>0.7</v>
       </c>
       <c r="I5" s="1">
-        <f>VLOOKUP(B5, Sheet2!A$2:J$5,10) * VLOOKUP(C5, Sheet3!A$2:J$4,10)</f>
-        <v>499</v>
+        <f>ROUND(VLOOKUP(B5, Sheet2!A$2:J$5,10) * VLOOKUP(C5, Sheet3!A$2:J$4,10), 0)</f>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -832,8 +832,8 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <f>VLOOKUP(B6, Sheet2!A$2:J$5,10) * VLOOKUP(C6, Sheet3!A$2:J$4,10)</f>
-        <v>178.20000000000002</v>
+        <f>ROUND(VLOOKUP(B6, Sheet2!A$2:J$5,10) * VLOOKUP(C6, Sheet3!A$2:J$4,10), 0)</f>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -866,8 +866,8 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="1">
-        <f>VLOOKUP(B7, Sheet2!A$2:J$5,10) * VLOOKUP(C7, Sheet3!A$2:J$4,10)</f>
-        <v>538.20000000000005</v>
+        <f>ROUND(VLOOKUP(B7, Sheet2!A$2:J$5,10) * VLOOKUP(C7, Sheet3!A$2:J$4,10), 0)</f>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -900,8 +900,8 @@
         <v>0.5</v>
       </c>
       <c r="I8" s="1">
-        <f>VLOOKUP(B8, Sheet2!A$2:J$5,10) * VLOOKUP(C8, Sheet3!A$2:J$4,10)</f>
-        <v>898.2</v>
+        <f>ROUND(VLOOKUP(B8, Sheet2!A$2:J$5,10) * VLOOKUP(C8, Sheet3!A$2:J$4,10), 0)</f>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -934,8 +934,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I9" s="1">
-        <f>VLOOKUP(B9, Sheet2!A$2:J$5,10) * VLOOKUP(C9, Sheet3!A$2:J$4,10)</f>
-        <v>148.5</v>
+        <f>ROUND(VLOOKUP(B9, Sheet2!A$2:J$5,10) * VLOOKUP(C9, Sheet3!A$2:J$4,10), 0)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -968,8 +968,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I10" s="1">
-        <f>VLOOKUP(B10, Sheet2!A$2:J$5,10) * VLOOKUP(C10, Sheet3!A$2:J$4,10)</f>
-        <v>448.5</v>
+        <f>ROUND(VLOOKUP(B10, Sheet2!A$2:J$5,10) * VLOOKUP(C10, Sheet3!A$2:J$4,10), 0)</f>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1002,8 +1002,8 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I11" s="1">
-        <f>VLOOKUP(B11, Sheet2!A$2:J$5,10) * VLOOKUP(C11, Sheet3!A$2:J$4,10)</f>
-        <v>748.5</v>
+        <f>ROUND(VLOOKUP(B11, Sheet2!A$2:J$5,10) * VLOOKUP(C11, Sheet3!A$2:J$4,10), 0)</f>
+        <v>899</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1036,8 +1036,8 @@
         <v>0.88</v>
       </c>
       <c r="I12" s="1">
-        <f>VLOOKUP(B12, Sheet2!A$2:J$5,10) * VLOOKUP(C12, Sheet3!A$2:J$4,10)</f>
-        <v>123.75</v>
+        <f>ROUND(VLOOKUP(B12, Sheet2!A$2:J$5,10) * VLOOKUP(C12, Sheet3!A$2:J$4,10), 0)</f>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1070,8 +1070,8 @@
         <v>0.88</v>
       </c>
       <c r="I13" s="1">
-        <f>VLOOKUP(B13, Sheet2!A$2:J$5,10) * VLOOKUP(C13, Sheet3!A$2:J$4,10)</f>
-        <v>373.75</v>
+        <f>ROUND(VLOOKUP(B13, Sheet2!A$2:J$5,10) * VLOOKUP(C13, Sheet3!A$2:J$4,10), 0)</f>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1104,8 +1104,8 @@
         <v>0.88</v>
       </c>
       <c r="I14" s="1">
-        <f>VLOOKUP(B14, Sheet2!A$2:J$5,10) * VLOOKUP(C14, Sheet3!A$2:J$4,10)</f>
-        <v>623.75</v>
+        <f>ROUND(VLOOKUP(B14, Sheet2!A$2:J$5,10) * VLOOKUP(C14, Sheet3!A$2:J$4,10), 0)</f>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1425,7 @@
         <v>2100</v>
       </c>
       <c r="J3" s="1">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1461,7 +1461,7 @@
         <v>4400</v>
       </c>
       <c r="J4" s="1">
-        <v>499</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="E3" s="1">
         <f xml:space="preserve"> VLOOKUP(B3,Sheet2!$A$2:$C$5,3) * VLOOKUP(C3, Sheet3!$A$2:$B$4,2)</f>
-        <v>297.5</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1">
         <f>VLOOKUP(B3, Sheet2!$A$2:$D$5,4) * VLOOKUP(C3, Sheet3!$A$1:$F$4,6)</f>
@@ -749,7 +749,7 @@
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
-        <v>805</v>
+        <v>724.5</v>
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
@@ -783,7 +783,7 @@
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
-        <v>2268</v>
+        <v>1944</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
@@ -817,7 +817,7 @@
       </c>
       <c r="E6" s="1">
         <f xml:space="preserve"> VLOOKUP(B6,Sheet2!$A$2:$C$5,3) * VLOOKUP(C6, Sheet3!$A$2:$B$4,2)</f>
-        <v>892.5</v>
+        <v>765</v>
       </c>
       <c r="F6" s="1">
         <f>VLOOKUP(B6, Sheet2!$A$2:$D$5,4) * VLOOKUP(C6, Sheet3!$A$1:$F$4,6)</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
-        <v>2415</v>
+        <v>2173.5</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
@@ -885,7 +885,7 @@
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
-        <v>6804</v>
+        <v>5832</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
@@ -919,7 +919,7 @@
       </c>
       <c r="E9" s="1">
         <f xml:space="preserve"> VLOOKUP(B9,Sheet2!$A$2:$C$5,3) * VLOOKUP(C9, Sheet3!$A$2:$B$4,2)</f>
-        <v>446.25</v>
+        <v>382.5</v>
       </c>
       <c r="F9" s="1">
         <f>VLOOKUP(B9, Sheet2!$A$2:$D$5,4) * VLOOKUP(C9, Sheet3!$A$1:$F$4,6)</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
-        <v>1207.5</v>
+        <v>1086.75</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
@@ -987,7 +987,7 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
-        <v>3402</v>
+        <v>2916</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="E12" s="1">
         <f xml:space="preserve"> VLOOKUP(B12,Sheet2!$A$2:$C$5,3) * VLOOKUP(C12, Sheet3!$A$2:$B$4,2)</f>
-        <v>267.75</v>
+        <v>229.5</v>
       </c>
       <c r="F12" s="1">
         <f>VLOOKUP(B12, Sheet2!$A$2:$D$5,4) * VLOOKUP(C12, Sheet3!$A$1:$F$4,6)</f>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E13" s="1">
         <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
-        <v>724.5</v>
+        <v>652.05000000000007</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
-        <v>2041.2</v>
+        <v>1749.6000000000001</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1362,10 +1362,10 @@
       </c>
       <c r="B2" s="1">
         <f>C2 * E2</f>
-        <v>297.5</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
-        <v>805</v>
+        <v>724.5</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
@@ -1434,10 +1434,10 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>2268</v>
+        <v>1944</v>
       </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3460" yWindow="520" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> VLOOKUP(B4,Sheet2!$A$2:$C$5,3) * VLOOKUP(C4, Sheet3!$A$2:$B$4,2)</f>
-        <v>724.5</v>
+        <v>751.5</v>
       </c>
       <c r="F4" s="1">
         <f>VLOOKUP(B4, Sheet2!$A$2:$D$5,4) * VLOOKUP(C4, Sheet3!$A$1:$F$4,6)</f>
@@ -783,7 +783,7 @@
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> VLOOKUP(B5,Sheet2!$A$2:$C$5,3) * VLOOKUP(C5, Sheet3!$A$2:$B$4,2)</f>
-        <v>1944</v>
+        <v>3941</v>
       </c>
       <c r="F5" s="1">
         <f>VLOOKUP(B5, Sheet2!$A$2:$D$5,4) * VLOOKUP(C5, Sheet3!$A$1:$F$4,6)</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> VLOOKUP(B7,Sheet2!$A$2:$C$5,3) * VLOOKUP(C7, Sheet3!$A$2:$B$4,2)</f>
-        <v>2173.5</v>
+        <v>2254.5</v>
       </c>
       <c r="F7" s="1">
         <f>VLOOKUP(B7, Sheet2!$A$2:$D$5,4) * VLOOKUP(C7, Sheet3!$A$1:$F$4,6)</f>
@@ -885,7 +885,7 @@
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> VLOOKUP(B8,Sheet2!$A$2:$C$5,3) * VLOOKUP(C8, Sheet3!$A$2:$B$4,2)</f>
-        <v>5832</v>
+        <v>11823</v>
       </c>
       <c r="F8" s="1">
         <f>VLOOKUP(B8, Sheet2!$A$2:$D$5,4) * VLOOKUP(C8, Sheet3!$A$1:$F$4,6)</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> VLOOKUP(B10,Sheet2!$A$2:$C$5,3) * VLOOKUP(C10, Sheet3!$A$2:$B$4,2)</f>
-        <v>1086.75</v>
+        <v>1127.25</v>
       </c>
       <c r="F10" s="1">
         <f>VLOOKUP(B10, Sheet2!$A$2:$D$5,4) * VLOOKUP(C10, Sheet3!$A$1:$F$4,6)</f>
@@ -987,7 +987,7 @@
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> VLOOKUP(B11,Sheet2!$A$2:$C$5,3) * VLOOKUP(C11, Sheet3!$A$2:$B$4,2)</f>
-        <v>2916</v>
+        <v>5911.5</v>
       </c>
       <c r="F11" s="1">
         <f>VLOOKUP(B11, Sheet2!$A$2:$D$5,4) * VLOOKUP(C11, Sheet3!$A$1:$F$4,6)</f>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E13" s="1">
         <f xml:space="preserve"> VLOOKUP(B13,Sheet2!$A$2:$C$5,3) * VLOOKUP(C13, Sheet3!$A$2:$B$4,2)</f>
-        <v>652.05000000000007</v>
+        <v>676.35</v>
       </c>
       <c r="F13" s="1">
         <f>VLOOKUP(B13, Sheet2!$A$2:$D$5,4) * VLOOKUP(C13, Sheet3!$A$1:$F$4,6)</f>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E14" s="1">
         <f xml:space="preserve"> VLOOKUP(B14,Sheet2!$A$2:$C$5,3) * VLOOKUP(C14, Sheet3!$A$2:$B$4,2)</f>
-        <v>1749.6000000000001</v>
+        <v>3546.9</v>
       </c>
       <c r="F14" s="1">
         <f>VLOOKUP(B14, Sheet2!$A$2:$D$5,4) * VLOOKUP(C14, Sheet3!$A$1:$F$4,6)</f>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B4" si="0">C3 * E3</f>
-        <v>724.5</v>
+        <v>751.5</v>
       </c>
       <c r="C3" s="1">
         <v>4.5</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(D3, GunLevel!A4:B28,2)</f>
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F4" si="1">ROUND(I3/G3, 0)</f>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1944</v>
+        <v>3941</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <f>VLOOKUP(D4, GunLevel!A5:B29,2)</f>
-        <v>324</v>
+        <v>563</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
@@ -1479,671 +1479,671 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>59</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
         <v>1.2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <f>B3 *E3</f>
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="1">
         <f>A3 +1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>ROUND(B3*D4, 0)</f>
         <v>71</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
         <v>1.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A26" si="2">A4 +1</f>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
         <v>85</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E27" si="4">E4</f>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="3"/>
+        <v>267</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="3"/>
+        <v>563</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>647</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E18" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+        <v>744</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E19" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
+        <v>856</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E20" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>213</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+        <v>984</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E21" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+        <v>1132</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E22" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>282</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+        <v>1302</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E23" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>324</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
+        <v>1497</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E24" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>373</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+        <v>1722</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E25" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>429</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+        <v>1980</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E26" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="3"/>
-        <v>493</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>567</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="3"/>
-        <v>652</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="3"/>
-        <v>863</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>863</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>992</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>1141</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>1312</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="3"/>
-        <v>1509</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="3"/>
-        <v>1735</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>1735</v>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1980</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
+      <c r="A27" s="1">
         <f>A26 +1</f>
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>1995</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+        <v>2277</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1995</v>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>2277</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="520" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data/EnemyConfig.xlsx
+++ b/Data/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,8 +252,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -284,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -295,6 +309,13 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -305,6 +326,13 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,7 +665,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -765,7 +793,7 @@
       </c>
       <c r="I4" s="1">
         <f>ROUND(VLOOKUP(B4, Sheet2!A$2:J$5,10) * VLOOKUP(C4, Sheet3!A$2:J$4,10), 0)</f>
-        <v>399</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -799,7 +827,7 @@
       </c>
       <c r="I5" s="1">
         <f>ROUND(VLOOKUP(B5, Sheet2!A$2:J$5,10) * VLOOKUP(C5, Sheet3!A$2:J$4,10), 0)</f>
-        <v>599</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -833,7 +861,7 @@
       </c>
       <c r="I6" s="1">
         <f>ROUND(VLOOKUP(B6, Sheet2!A$2:J$5,10) * VLOOKUP(C6, Sheet3!A$2:J$4,10), 0)</f>
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -867,7 +895,7 @@
       </c>
       <c r="I7" s="1">
         <f>ROUND(VLOOKUP(B7, Sheet2!A$2:J$5,10) * VLOOKUP(C7, Sheet3!A$2:J$4,10), 0)</f>
-        <v>718</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -901,7 +929,7 @@
       </c>
       <c r="I8" s="1">
         <f>ROUND(VLOOKUP(B8, Sheet2!A$2:J$5,10) * VLOOKUP(C8, Sheet3!A$2:J$4,10), 0)</f>
-        <v>1078</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -935,7 +963,7 @@
       </c>
       <c r="I9" s="1">
         <f>ROUND(VLOOKUP(B9, Sheet2!A$2:J$5,10) * VLOOKUP(C9, Sheet3!A$2:J$4,10), 0)</f>
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -969,7 +997,7 @@
       </c>
       <c r="I10" s="1">
         <f>ROUND(VLOOKUP(B10, Sheet2!A$2:J$5,10) * VLOOKUP(C10, Sheet3!A$2:J$4,10), 0)</f>
-        <v>599</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1003,7 +1031,7 @@
       </c>
       <c r="I11" s="1">
         <f>ROUND(VLOOKUP(B11, Sheet2!A$2:J$5,10) * VLOOKUP(C11, Sheet3!A$2:J$4,10), 0)</f>
-        <v>899</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1037,7 +1065,7 @@
       </c>
       <c r="I12" s="1">
         <f>ROUND(VLOOKUP(B12, Sheet2!A$2:J$5,10) * VLOOKUP(C12, Sheet3!A$2:J$4,10), 0)</f>
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1071,7 +1099,7 @@
       </c>
       <c r="I13" s="1">
         <f>ROUND(VLOOKUP(B13, Sheet2!A$2:J$5,10) * VLOOKUP(C13, Sheet3!A$2:J$4,10), 0)</f>
-        <v>499</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1105,11 +1133,12 @@
       </c>
       <c r="I14" s="1">
         <f>ROUND(VLOOKUP(B14, Sheet2!A$2:J$5,10) * VLOOKUP(C14, Sheet3!A$2:J$4,10), 0)</f>
-        <v>749</v>
+        <v>3998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1120,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1131,7 +1160,7 @@
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1162,8 +1191,11 @@
       <c r="J1" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1196,8 +1228,11 @@
       <c r="J2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="1">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1228,10 +1263,13 @@
         <v>7</v>
       </c>
       <c r="J3" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1262,10 +1300,13 @@
         <v>6</v>
       </c>
       <c r="J4" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1.4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1296,7 +1337,45 @@
         <v>4</v>
       </c>
       <c r="J5" s="4">
-        <v>1.25</v>
+        <v>1.6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="L6" s="1">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="L7" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="L8" s="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" s="1">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" s="1">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="L12" s="1">
+        <v>3998</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1393,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1425,7 +1504,7 @@
         <v>2100</v>
       </c>
       <c r="J3" s="1">
-        <v>399</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1461,7 +1540,7 @@
         <v>4400</v>
       </c>
       <c r="J4" s="1">
-        <v>599</v>
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
